--- a/document/整合后的道具和平台信息.xlsx
+++ b/document/整合后的道具和平台信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git的根\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git的根\doc\xcpxer-go-down\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCD328A-FC59-46FB-B72D-3B59AA703908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46188890-F2AF-4FD0-A1FE-8841EE44AAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{37417610-DB7A-4797-862C-32871017654E}"/>
+    <workbookView xWindow="580" yWindow="1670" windowWidth="19200" windowHeight="12850" xr2:uid="{37417610-DB7A-4797-862C-32871017654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>道具名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed降低到 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改map_msg的speed的正负</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bounce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,16 +159,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分数-2，地图速度增加0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地图速度减少0.2（不低于0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数-2，地图左右边界各缩小10
-不超过（0，550）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,11 +176,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家向上的速度修改为20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家的速度 + 1.0</t>
+    <t>speed（只有向右的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家向右的速度 + 1.0
+效果可以多次触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家y轴的速度修改为-10
+效果可以多次触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家y轴的速度修改为10
+效果可以多次触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了speed，bounce，NULL以外的平台触发后贴图都要变为NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数-2，地图左右边界各缩小10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数-2，地图速度增加0.2（没有上界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_msg的速度降低到 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F1688-8D38-4EDF-8192-A36CC0729AB1}">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71:L75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -720,7 +730,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -836,7 +846,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -952,7 +962,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1068,7 +1078,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1184,7 +1194,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1410,19 +1420,19 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1526,19 +1536,19 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1642,19 +1652,19 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1758,19 +1768,19 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -1874,19 +1884,19 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -1990,19 +2000,19 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -2106,19 +2116,19 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -2222,19 +2232,19 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1" t="s">
-        <v>38</v>
+      <c r="E71" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>38</v>
+      <c r="I71" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2338,19 +2348,19 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>37</v>
+      <c r="E76" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1" t="s">
-        <v>37</v>
+      <c r="I76" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -2453,7 +2463,9 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2893,107 +2905,105 @@
       <c r="T100" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="98">
+    <mergeCell ref="A6:D10"/>
+    <mergeCell ref="E6:H10"/>
+    <mergeCell ref="I6:L10"/>
+    <mergeCell ref="M6:P10"/>
+    <mergeCell ref="Q6:T10"/>
+    <mergeCell ref="A1:D5"/>
+    <mergeCell ref="E1:H5"/>
+    <mergeCell ref="I1:L5"/>
+    <mergeCell ref="M1:P5"/>
+    <mergeCell ref="Q1:T5"/>
+    <mergeCell ref="A16:D20"/>
+    <mergeCell ref="E16:H20"/>
+    <mergeCell ref="I16:L20"/>
+    <mergeCell ref="M16:P20"/>
+    <mergeCell ref="Q16:T20"/>
+    <mergeCell ref="A11:D15"/>
+    <mergeCell ref="E11:H15"/>
+    <mergeCell ref="I11:L15"/>
+    <mergeCell ref="M11:P15"/>
+    <mergeCell ref="Q11:T15"/>
+    <mergeCell ref="A26:D30"/>
+    <mergeCell ref="E26:H30"/>
+    <mergeCell ref="I26:L30"/>
+    <mergeCell ref="M26:P30"/>
+    <mergeCell ref="Q26:T30"/>
+    <mergeCell ref="A21:D25"/>
+    <mergeCell ref="E21:H25"/>
+    <mergeCell ref="I21:L25"/>
+    <mergeCell ref="M21:P25"/>
+    <mergeCell ref="Q21:T25"/>
+    <mergeCell ref="A36:D40"/>
+    <mergeCell ref="E36:H40"/>
+    <mergeCell ref="I36:L40"/>
+    <mergeCell ref="M36:P40"/>
+    <mergeCell ref="Q36:T40"/>
+    <mergeCell ref="A31:D35"/>
+    <mergeCell ref="E31:H35"/>
+    <mergeCell ref="I31:L35"/>
+    <mergeCell ref="M31:P35"/>
+    <mergeCell ref="Q31:T35"/>
+    <mergeCell ref="A46:D50"/>
+    <mergeCell ref="E46:H50"/>
+    <mergeCell ref="I46:L50"/>
+    <mergeCell ref="M46:P50"/>
+    <mergeCell ref="Q46:T50"/>
+    <mergeCell ref="A41:D45"/>
+    <mergeCell ref="E41:H45"/>
+    <mergeCell ref="I41:L45"/>
+    <mergeCell ref="M41:P45"/>
+    <mergeCell ref="Q41:T45"/>
+    <mergeCell ref="A56:D60"/>
+    <mergeCell ref="E56:H60"/>
+    <mergeCell ref="I56:L60"/>
+    <mergeCell ref="M56:P60"/>
+    <mergeCell ref="Q56:T60"/>
+    <mergeCell ref="A51:D55"/>
+    <mergeCell ref="E51:H55"/>
+    <mergeCell ref="I51:L55"/>
+    <mergeCell ref="M51:P55"/>
+    <mergeCell ref="Q51:T55"/>
+    <mergeCell ref="A66:D70"/>
+    <mergeCell ref="E66:H70"/>
+    <mergeCell ref="I66:L70"/>
+    <mergeCell ref="M66:P70"/>
+    <mergeCell ref="Q66:T70"/>
+    <mergeCell ref="A61:D65"/>
+    <mergeCell ref="E61:H65"/>
+    <mergeCell ref="I61:L65"/>
+    <mergeCell ref="M61:P65"/>
+    <mergeCell ref="Q61:T65"/>
+    <mergeCell ref="A76:D80"/>
+    <mergeCell ref="E76:H80"/>
+    <mergeCell ref="I76:L80"/>
+    <mergeCell ref="M76:P80"/>
+    <mergeCell ref="Q76:T80"/>
+    <mergeCell ref="A71:D75"/>
+    <mergeCell ref="E71:H75"/>
+    <mergeCell ref="I71:L75"/>
+    <mergeCell ref="M71:P75"/>
+    <mergeCell ref="Q71:T75"/>
+    <mergeCell ref="A86:D90"/>
+    <mergeCell ref="E86:H90"/>
+    <mergeCell ref="I86:L90"/>
+    <mergeCell ref="M86:P90"/>
+    <mergeCell ref="Q86:T90"/>
+    <mergeCell ref="M81:P85"/>
+    <mergeCell ref="Q81:T85"/>
+    <mergeCell ref="A81:L85"/>
+    <mergeCell ref="A96:D100"/>
+    <mergeCell ref="E96:H100"/>
+    <mergeCell ref="I96:L100"/>
+    <mergeCell ref="M96:P100"/>
+    <mergeCell ref="Q96:T100"/>
     <mergeCell ref="A91:D95"/>
     <mergeCell ref="E91:H95"/>
     <mergeCell ref="I91:L95"/>
     <mergeCell ref="M91:P95"/>
     <mergeCell ref="Q91:T95"/>
-    <mergeCell ref="A96:D100"/>
-    <mergeCell ref="E96:H100"/>
-    <mergeCell ref="I96:L100"/>
-    <mergeCell ref="M96:P100"/>
-    <mergeCell ref="Q96:T100"/>
-    <mergeCell ref="A81:D85"/>
-    <mergeCell ref="E81:H85"/>
-    <mergeCell ref="I81:L85"/>
-    <mergeCell ref="M81:P85"/>
-    <mergeCell ref="Q81:T85"/>
-    <mergeCell ref="A86:D90"/>
-    <mergeCell ref="E86:H90"/>
-    <mergeCell ref="I86:L90"/>
-    <mergeCell ref="M86:P90"/>
-    <mergeCell ref="Q86:T90"/>
-    <mergeCell ref="A71:D75"/>
-    <mergeCell ref="E71:H75"/>
-    <mergeCell ref="I71:L75"/>
-    <mergeCell ref="M71:P75"/>
-    <mergeCell ref="Q71:T75"/>
-    <mergeCell ref="A76:D80"/>
-    <mergeCell ref="E76:H80"/>
-    <mergeCell ref="I76:L80"/>
-    <mergeCell ref="M76:P80"/>
-    <mergeCell ref="Q76:T80"/>
-    <mergeCell ref="A61:D65"/>
-    <mergeCell ref="E61:H65"/>
-    <mergeCell ref="I61:L65"/>
-    <mergeCell ref="M61:P65"/>
-    <mergeCell ref="Q61:T65"/>
-    <mergeCell ref="A66:D70"/>
-    <mergeCell ref="E66:H70"/>
-    <mergeCell ref="I66:L70"/>
-    <mergeCell ref="M66:P70"/>
-    <mergeCell ref="Q66:T70"/>
-    <mergeCell ref="A51:D55"/>
-    <mergeCell ref="E51:H55"/>
-    <mergeCell ref="I51:L55"/>
-    <mergeCell ref="M51:P55"/>
-    <mergeCell ref="Q51:T55"/>
-    <mergeCell ref="A56:D60"/>
-    <mergeCell ref="E56:H60"/>
-    <mergeCell ref="I56:L60"/>
-    <mergeCell ref="M56:P60"/>
-    <mergeCell ref="Q56:T60"/>
-    <mergeCell ref="A41:D45"/>
-    <mergeCell ref="E41:H45"/>
-    <mergeCell ref="I41:L45"/>
-    <mergeCell ref="M41:P45"/>
-    <mergeCell ref="Q41:T45"/>
-    <mergeCell ref="A46:D50"/>
-    <mergeCell ref="E46:H50"/>
-    <mergeCell ref="I46:L50"/>
-    <mergeCell ref="M46:P50"/>
-    <mergeCell ref="Q46:T50"/>
-    <mergeCell ref="A31:D35"/>
-    <mergeCell ref="E31:H35"/>
-    <mergeCell ref="I31:L35"/>
-    <mergeCell ref="M31:P35"/>
-    <mergeCell ref="Q31:T35"/>
-    <mergeCell ref="A36:D40"/>
-    <mergeCell ref="E36:H40"/>
-    <mergeCell ref="I36:L40"/>
-    <mergeCell ref="M36:P40"/>
-    <mergeCell ref="Q36:T40"/>
-    <mergeCell ref="A21:D25"/>
-    <mergeCell ref="E21:H25"/>
-    <mergeCell ref="I21:L25"/>
-    <mergeCell ref="M21:P25"/>
-    <mergeCell ref="Q21:T25"/>
-    <mergeCell ref="A26:D30"/>
-    <mergeCell ref="E26:H30"/>
-    <mergeCell ref="I26:L30"/>
-    <mergeCell ref="M26:P30"/>
-    <mergeCell ref="Q26:T30"/>
-    <mergeCell ref="A11:D15"/>
-    <mergeCell ref="E11:H15"/>
-    <mergeCell ref="I11:L15"/>
-    <mergeCell ref="M11:P15"/>
-    <mergeCell ref="Q11:T15"/>
-    <mergeCell ref="A16:D20"/>
-    <mergeCell ref="E16:H20"/>
-    <mergeCell ref="I16:L20"/>
-    <mergeCell ref="M16:P20"/>
-    <mergeCell ref="Q16:T20"/>
-    <mergeCell ref="A1:D5"/>
-    <mergeCell ref="E1:H5"/>
-    <mergeCell ref="I1:L5"/>
-    <mergeCell ref="M1:P5"/>
-    <mergeCell ref="Q1:T5"/>
-    <mergeCell ref="A6:D10"/>
-    <mergeCell ref="E6:H10"/>
-    <mergeCell ref="I6:L10"/>
-    <mergeCell ref="M6:P10"/>
-    <mergeCell ref="Q6:T10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
